--- a/processed/quellen.xlsx
+++ b/processed/quellen.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>Title</t>
   </si>
@@ -34,12 +34,33 @@
     <t>Has_Sources</t>
   </si>
   <si>
-    <t>Peer_Review</t>
-  </si>
-  <si>
     <t>Independent</t>
   </si>
   <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Urgency</t>
+  </si>
+  <si>
+    <t>NACE_Relevant</t>
+  </si>
+  <si>
+    <t>Company_Influence</t>
+  </si>
+  <si>
+    <t>Data_Availability</t>
+  </si>
+  <si>
+    <t>Regulation</t>
+  </si>
+  <si>
     <t>Identifying the Human Rights Impacts of Palm Oil</t>
   </si>
   <si>
@@ -55,6 +76,15 @@
     <t>TRUE</t>
   </si>
   <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>GLOBAL</t>
+  </si>
+  <si>
+    <t>IMMEDIATE</t>
+  </si>
+  <si>
     <t>Handlungsleitfaden zur Durchführung der Risikoanalyse für Kakao produzierende Länder</t>
   </si>
   <si>
@@ -70,6 +100,15 @@
     <t>FALSE</t>
   </si>
   <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>REGIONAL</t>
+  </si>
+  <si>
+    <t>MEDIUM TERM</t>
+  </si>
+  <si>
     <t>UNEP FI Human Rights Guidance Tool for the Financial Sector "Infrastructure"</t>
   </si>
   <si>
@@ -80,6 +119,15 @@
   </si>
   <si>
     <t>French</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>LONG TERM</t>
   </si>
   <si>
     <t>Wages and Working Hours in the Textiles, Clothing, Leather and Footwear Industries</t>
@@ -1489,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1503,8 +1551,8 @@
     <col min="6" max="6" width="17.3516" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6719" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="16" width="18.6719" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1535,933 +1583,1626 @@
       <c r="I1" t="s" s="5">
         <v>8</v>
       </c>
+      <c r="J1" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s" s="6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s" s="6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="7">
         <v>45809</v>
       </c>
       <c r="F2" t="s" s="6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s" s="6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s" s="6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s" s="6">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J2" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E3" s="9">
         <v>44348</v>
       </c>
       <c r="F3" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s" s="8">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="J3" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="8">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="8">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s" s="8">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E4" s="9">
         <v>43617</v>
       </c>
       <c r="F4" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="8">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="J4" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="8">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="9">
         <v>45809</v>
       </c>
       <c r="F5" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s" s="8">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="J5" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="8">
         <v>27</v>
-      </c>
-      <c r="C6" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s" s="8">
-        <v>17</v>
       </c>
       <c r="E6" s="9">
         <v>44348</v>
       </c>
       <c r="F6" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="8">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="J6" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s" s="8">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E7" s="9">
         <v>43617</v>
       </c>
       <c r="F7" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s" s="8">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="J7" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="P7" t="s" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="8">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s" s="8">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="8">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E8" s="9">
         <v>45809</v>
       </c>
       <c r="F8" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s" s="8">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J8" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="8">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="8">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E9" s="9">
         <v>44348</v>
       </c>
       <c r="F9" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s" s="8">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="J9" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="8">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E10" s="9">
         <v>43617</v>
       </c>
       <c r="F10" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s" s="8">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="J10" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="L10" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="O10" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="P10" t="s" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s" s="8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E11" s="9">
         <v>45809</v>
       </c>
       <c r="F11" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s" s="8">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="J11" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="O11" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="P11" t="s" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s" s="8">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s" s="8">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12" s="9">
         <v>44348</v>
       </c>
       <c r="F12" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s" s="8">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="J12" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="N12" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="P12" t="s" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="8">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s" s="8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E13" s="9">
         <v>43617</v>
       </c>
       <c r="F13" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s" s="8">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="J13" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="M13" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="P13" t="s" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="8">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s" s="8">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E14" s="9">
         <v>45809</v>
       </c>
       <c r="F14" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s" s="8">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J14" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="P14" t="s" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="8">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s" s="8">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s" s="8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E15" s="9">
         <v>44348</v>
       </c>
       <c r="F15" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s" s="8">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="J15" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="N15" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="P15" t="s" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="8">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s" s="8">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E16" s="9">
         <v>43617</v>
       </c>
       <c r="F16" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s" s="8">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="J16" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="M16" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="N16" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="O16" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="P16" t="s" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="8">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="8">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E17" s="9">
         <v>45809</v>
       </c>
       <c r="F17" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s" s="8">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="J17" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="P17" t="s" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="8">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="8">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E18" s="9">
         <v>44348</v>
       </c>
       <c r="F18" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s" s="8">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="J18" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="L18" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="M18" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="N18" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="P18" t="s" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="8">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s" s="8">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s" s="8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E19" s="9">
         <v>43617</v>
       </c>
       <c r="F19" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I19" t="s" s="8">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="J19" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="M19" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="N19" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="O19" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="P19" t="s" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="8">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s" s="8">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s" s="8">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E20" s="9">
         <v>45809</v>
       </c>
       <c r="F20" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s" s="8">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="M20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="P20" t="s" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="8">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s" s="8">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E21" s="9">
         <v>44348</v>
       </c>
       <c r="F21" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s" s="8">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="J21" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="N21" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="O21" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="P21" t="s" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="8">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s" s="8">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E22" s="9">
         <v>43617</v>
       </c>
       <c r="F22" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s" s="8">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="J22" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="K22" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="L22" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="M22" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="N22" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="O22" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="P22" t="s" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="8">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s" s="8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E23" s="9">
         <v>45809</v>
       </c>
       <c r="F23" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I23" t="s" s="8">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="J23" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="M23" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="O23" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="P23" t="s" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="8">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s" s="8">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s" s="8">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E24" s="9">
         <v>44348</v>
       </c>
       <c r="F24" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s" s="8">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="J24" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="L24" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="N24" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="O24" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="P24" t="s" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="8">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s" s="8">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E25" s="9">
         <v>43617</v>
       </c>
       <c r="F25" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s" s="8">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="J25" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="L25" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="M25" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="N25" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="O25" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="P25" t="s" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="8">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s" s="8">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E26" s="9">
         <v>45809</v>
       </c>
       <c r="F26" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s" s="8">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J26" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="M26" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="N26" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="O26" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="P26" t="s" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
       <c r="A27" t="s" s="8">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s" s="8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s" s="8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E27" s="9">
         <v>44348</v>
       </c>
       <c r="F27" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I27" t="s" s="8">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="J27" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="L27" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="M27" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="N27" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="O27" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="P27" t="s" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" t="s" s="8">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s" s="8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s" s="8">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E28" s="9">
         <v>43617</v>
       </c>
       <c r="F28" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s" s="8">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="J28" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="K28" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="L28" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="M28" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="N28" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="O28" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="P28" t="s" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" t="s" s="8">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s" s="8">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E29" s="9">
         <v>45809</v>
       </c>
       <c r="F29" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H29" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I29" t="s" s="8">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="J29" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="M29" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="N29" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="O29" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="P29" t="s" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="8">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s" s="8">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E30" s="9">
         <v>44348</v>
       </c>
       <c r="F30" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s" s="8">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="J30" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="L30" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="M30" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="N30" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="O30" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="P30" t="s" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="13.55" customHeight="1">
       <c r="A31" t="s" s="8">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s" s="8">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s" s="8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E31" s="9">
         <v>43617</v>
       </c>
       <c r="F31" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H31" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I31" t="s" s="8">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="J31" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="K31" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="M31" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="N31" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="O31" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="P31" t="s" s="8">
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" t="s" s="8">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s" s="8">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s" s="8">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E32" s="9">
         <v>45809</v>
       </c>
       <c r="F32" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s" s="8">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J32" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="L32" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="M32" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="O32" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="P32" t="s" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="8">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s" s="8">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E33" s="9">
         <v>44348</v>
       </c>
       <c r="F33" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I33" t="s" s="8">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="J33" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="K33" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="L33" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="M33" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="N33" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="O33" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="P33" t="s" s="8">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
